--- a/biology/Mycologie/Morchella_hortensis/Morchella_hortensis.xlsx
+++ b/biology/Mycologie/Morchella_hortensis/Morchella_hortensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morille des jardins
 Morchella hortensis, la morille des jardins, est une espèce de champignons comestibles de la famille des Morchellaceae (ordre des Pezizales).
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau jusqu'à 10 cm de haut, allongé brun-noir, à alvéoles irréguliers, crêtes sombres, frisées.
 </t>
@@ -543,7 +557,9 @@
           <t>Saison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De mars à mai.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plus rudérale, vient en milieux riches : jardins, parcs, détritus et les tas d'ordures. Présence de buis.
 </t>
@@ -605,7 +623,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible.
 </t>
@@ -636,9 +656,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Morchella hortensis Boud., 1897[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Morchella hortensis Boud., 1897.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Boudier, « Révision analytique des morilles de France », Bulletin de la Société mycologique de France, vol. 13,‎ 1897, p. 129-153 (lire en ligne)</t>
         </is>
